--- a/biology/Zoologie/Bison_du_Caucase/Bison_du_Caucase.xlsx
+++ b/biology/Zoologie/Bison_du_Caucase/Bison_du_Caucase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bos bison caucasicus, Bos caucasicus
-Le bison du Caucase (Bison bonasus caucasicus) est une sous-espèce éteinte du bison d'Europe décrite par Turkin &amp; Satunin en 1904. Aujourd'hui il ne reste plus aucun individu de cette sous-espèce[1] mais certains individus issus de croisement entre B. b. caucasicus et B. b. bonasus existent en captivité.
+Le bison du Caucase (Bison bonasus caucasicus) est une sous-espèce éteinte du bison d'Europe décrite par Turkin &amp; Satunin en 1904. Aujourd'hui il ne reste plus aucun individu de cette sous-espèce mais certains individus issus de croisement entre B. b. caucasicus et B. b. bonasus existent en captivité.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette sous-espèce vivait le long du Caucase.
 </t>
@@ -543,7 +557,9 @@
           <t>Extinction</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'est éteint à cause de la guerre civile de Russie et de la chasse qui l'a exterminé.
 </t>
